--- a/Building Application Cost.xlsx
+++ b/Building Application Cost.xlsx
@@ -179,9 +179,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.000_ ;_-[$$-409]* \-#,##0.000\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.0000_ ;_-[$$-409]* \-#,##0.0000\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.000_ ;_-[$$-409]* \-#,##0.000\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.0000_ ;_-[$$-409]* \-#,##0.0000\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -309,7 +309,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -317,19 +317,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -338,16 +338,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -708,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC07133-5E3C-4064-A581-C408B8AD8063}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,50 +730,50 @@
     <col min="15" max="15" width="17.85546875" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="16" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:15" s="15" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="13" t="s">
         <v>37</v>
       </c>
     </row>
@@ -797,17 +794,17 @@
         <v>2.19</v>
       </c>
       <c r="F2" s="7">
-        <f>B2*D2/1000000</f>
+        <f t="shared" ref="F2:G4" si="0">B2*D2/1000000</f>
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="G2" s="7">
-        <f>C2*E2/1000000</f>
+        <f t="shared" si="0"/>
         <v>3.1974000000000002E-2</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>20</v>
       </c>
       <c r="J2" s="9" t="s">
@@ -816,15 +813,15 @@
       <c r="K2" s="1">
         <v>3</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="19" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="3">
-        <f>F2+G2</f>
+        <f t="shared" ref="M2:M9" si="1">F2+G2</f>
         <v>3.3073999999999999E-2</v>
       </c>
-      <c r="N2" s="17"/>
-      <c r="O2" s="13" t="s">
+      <c r="N2" s="16"/>
+      <c r="O2" s="12" t="s">
         <v>38</v>
       </c>
     </row>
@@ -845,17 +842,17 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F3" s="7">
-        <f>B3*D3/1000000</f>
+        <f t="shared" si="0"/>
         <v>5.4000000000000001E-4</v>
       </c>
       <c r="G3" s="7">
-        <f>C3*E3/1000000</f>
+        <f t="shared" si="0"/>
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="19" t="s">
         <v>25</v>
       </c>
       <c r="J3" s="9" t="s">
@@ -868,11 +865,11 @@
         <v>33</v>
       </c>
       <c r="M3" s="3">
-        <f>F3+G3</f>
+        <f t="shared" si="1"/>
         <v>6.0399999999999994E-3</v>
       </c>
-      <c r="N3" s="17"/>
-      <c r="O3" s="13" t="s">
+      <c r="N3" s="16"/>
+      <c r="O3" s="12" t="s">
         <v>38</v>
       </c>
     </row>
@@ -893,36 +890,36 @@
         <v>10</v>
       </c>
       <c r="F4" s="7">
-        <f>B4*D4/1000000</f>
+        <f t="shared" si="0"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G4" s="7">
-        <f>C4*E4/1000000</f>
+        <f t="shared" si="0"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="19" t="s">
         <v>25</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="1">
         <v>4</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="19" t="s">
         <v>22</v>
       </c>
       <c r="M4" s="3">
-        <f>F4+G4</f>
+        <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="N4" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="12" t="s">
         <v>38</v>
       </c>
     </row>
@@ -943,11 +940,11 @@
         <v>15</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" ref="F5:F9" si="0">B5*D5/1000000</f>
+        <f t="shared" ref="F5:F9" si="2">B5*D5/1000000</f>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" ref="G5:G9" si="1">C5*E5/1000000</f>
+        <f t="shared" ref="G5:G9" si="3">C5*E5/1000000</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="H5" s="9" t="s">
@@ -959,20 +956,20 @@
       <c r="J5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="1">
         <v>9</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="19" t="s">
         <v>22</v>
       </c>
       <c r="M5" s="3">
-        <f>F5+G5</f>
+        <f t="shared" si="1"/>
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="N5" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="10" t="s">
         <v>36</v>
       </c>
     </row>
@@ -993,14 +990,14 @@
         <v>6</v>
       </c>
       <c r="F6" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="G6" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="19" t="s">
         <v>25</v>
       </c>
       <c r="I6" s="9" t="s">
@@ -1016,11 +1013,11 @@
         <v>28</v>
       </c>
       <c r="M6" s="3">
-        <f>F6+G6</f>
+        <f t="shared" si="1"/>
         <v>3.9999999999999994E-2</v>
       </c>
-      <c r="N6" s="17"/>
-      <c r="O6" s="12" t="s">
+      <c r="N6" s="16"/>
+      <c r="O6" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1041,11 +1038,11 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F7" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="G7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.4240000000000005E-2</v>
       </c>
       <c r="H7" s="9" t="s">
@@ -1064,13 +1061,13 @@
         <v>28</v>
       </c>
       <c r="M7" s="3">
-        <f>F7+G7</f>
+        <f t="shared" si="1"/>
         <v>6.6439999999999999E-2</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="N7" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="O7" s="10" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1091,7 +1088,7 @@
         <v>0.4</v>
       </c>
       <c r="F8" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="G8" s="7">
@@ -1114,13 +1111,13 @@
         <v>28</v>
       </c>
       <c r="M8" s="3">
-        <f>F8+G8</f>
+        <f t="shared" si="1"/>
         <v>6.0399999999999994E-3</v>
       </c>
-      <c r="N8" s="17" t="s">
+      <c r="N8" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="O8" s="10" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1141,11 +1138,11 @@
         <v>2.5</v>
       </c>
       <c r="F9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.1250000000000002E-2</v>
       </c>
       <c r="H9" s="9" t="s">
@@ -1164,11 +1161,11 @@
         <v>31</v>
       </c>
       <c r="M9" s="3">
-        <f>F9+G9</f>
+        <f t="shared" si="1"/>
         <v>2.375E-2</v>
       </c>
-      <c r="N9" s="17"/>
-      <c r="O9" s="11" t="s">
+      <c r="N9" s="16"/>
+      <c r="O9" s="10" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1189,17 +1186,17 @@
         <v>2.5</v>
       </c>
       <c r="F10" s="7">
-        <f t="shared" ref="F10:F11" si="2">B10*D10/1000000</f>
+        <f t="shared" ref="F10:F11" si="4">B10*D10/1000000</f>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="G10" s="7">
-        <f t="shared" ref="G10:G11" si="3">C10*E10/1000000</f>
+        <f t="shared" ref="G10:G11" si="5">C10*E10/1000000</f>
         <v>2.1250000000000002E-2</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="19" t="s">
         <v>20</v>
       </c>
       <c r="J10" s="9" t="s">
@@ -1212,11 +1209,11 @@
         <v>28</v>
       </c>
       <c r="M10" s="3">
-        <f t="shared" ref="M10:M12" si="4">F10+G10</f>
+        <f t="shared" ref="M10:M12" si="6">F10+G10</f>
         <v>2.375E-2</v>
       </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="12" t="s">
+      <c r="N10" s="16"/>
+      <c r="O10" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1237,14 +1234,14 @@
         <v>2.5</v>
       </c>
       <c r="F11" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="G11" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.6499999999999998E-2</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="19" t="s">
         <v>25</v>
       </c>
       <c r="I11" s="9" t="s">
@@ -1256,17 +1253,17 @@
       <c r="K11" s="1">
         <v>7</v>
       </c>
-      <c r="L11" s="20" t="s">
+      <c r="L11" s="19" t="s">
         <v>22</v>
       </c>
       <c r="M11" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.9E-2</v>
       </c>
-      <c r="N11" s="17" t="s">
+      <c r="N11" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="O11" s="12" t="s">
+      <c r="O11" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1310,11 +1307,11 @@
         <v>31</v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="11" t="s">
+      <c r="N12" s="16"/>
+      <c r="O12" s="10" t="s">
         <v>36</v>
       </c>
     </row>
